--- a/me/1.training_sass/02-enviroment.xlsx
+++ b/me/1.training_sass/02-enviroment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02DB4B8-83B7-4C16-841F-7BE5FBF4EBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120CF3A-BB82-4222-8CC2-330C7E95FC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="install Scout-App " sheetId="1" r:id="rId1"/>
     <sheet name="Convert" sheetId="2" r:id="rId2"/>
+    <sheet name="Output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>download</t>
   </si>
@@ -156,6 +157,63 @@
   </si>
   <si>
     <t>Stop convert</t>
+  </si>
+  <si>
+    <t>2.Output</t>
+  </si>
+  <si>
+    <t>  a {</t>
+  </si>
+  <si>
+    <t>    color: yellow;</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>    &lt;link href="style-01.css" rel="stylesheet"&gt;</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>new構成</t>
+  </si>
+  <si>
+    <t>  #main p a {</t>
+  </si>
+  <si>
+    <t>    color: yellow; }</t>
+  </si>
+  <si>
+    <t>        &lt;p&gt;&lt;a href="#"&gt;Lorem ipsum dolor sit amet.&lt;/a &gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Convert Nested</t>
+  </si>
+  <si>
+    <t>Convert Expanded</t>
+  </si>
+  <si>
+    <t>#main p a {</t>
+  </si>
+  <si>
+    <t>  color: yellow;</t>
+  </si>
+  <si>
+    <t>Convert Compact</t>
+  </si>
+  <si>
+    <t>#main p { background-color: #ff0000; }</t>
+  </si>
+  <si>
+    <t>#main p a { color: yellow; }</t>
+  </si>
+  <si>
+    <t>Convert Compressed</t>
+  </si>
+  <si>
+    <t>#main p{background-color:#ff0000}#main p a{color:yellow}</t>
   </si>
 </sst>
 </file>
@@ -186,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -274,11 +332,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -293,6 +388,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,6 +952,672 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD652480-2BCE-BA79-977A-A4A973B6674D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="790575" y="35232975"/>
+          <a:ext cx="2381250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8DA2E7-497D-98C6-FE23-4A8978CDC526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="800100" y="1676400"/>
+          <a:ext cx="2943225" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160914</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>18286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A64747C-0382-0FE6-6599-E7B2B2F577EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="8085714" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570514</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>189809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FBBBA5-0EC4-E530-557B-B16C82D8A0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13716000"/>
+          <a:ext cx="7885714" cy="5523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84724</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>8762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE025181-D825-EF6E-6036-3BCFF7C6ACD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19621500"/>
+          <a:ext cx="8009524" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599086</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>65976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF329EC6-31BA-D1A2-A54E-E65EB42A9BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25908000"/>
+          <a:ext cx="7914286" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151390</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>189738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73289AF-5574-08CA-B3EF-C81B797C7521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31813500"/>
+          <a:ext cx="8076190" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CE9F68-3B9E-4755-7858-FFACEA75E0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="752475" y="39976425"/>
+          <a:ext cx="2352675" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322819</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>123548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E4BC87-10BF-CFAE-88BE-220BE381B4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="41719500"/>
+          <a:ext cx="8247619" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103771</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>18286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F24564-183B-FCF3-F944-E2654FD43C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="44386500"/>
+          <a:ext cx="8028571" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E827CC-4B1A-C370-3663-3FAA92434216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="276225" y="40005000"/>
+          <a:ext cx="2924175" cy="10668000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132343</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>189738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B333D5-64C2-1B14-C93D-11C24A56893C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="52578000"/>
+          <a:ext cx="8057143" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E29C36-A106-5AD9-A9A1-F97671467B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="466725" y="39985950"/>
+          <a:ext cx="3038475" cy="18878550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65676</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>180214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAEFB4C-063C-C2CE-9628-4DAD0BA0CCF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60007500"/>
+          <a:ext cx="7990476" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1122,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
@@ -1148,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9114C9-9ECF-4631-99EE-582413DDE689}">
   <dimension ref="A2:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="R255" sqref="R255"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="P217" sqref="P217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,4 +2309,573 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E2EFC6-B6CE-403B-9A90-5DF142338D89}">
+  <dimension ref="A2:H350"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="C204" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="7"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="8"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="9"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="10"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="6"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C272" s="6"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C273" s="6"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="10"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="5"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="7"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="10"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B350" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C350" s="15"/>
+      <c r="D350" s="15"/>
+      <c r="E350" s="15"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/02-enviroment.xlsx
+++ b/me/1.training_sass/02-enviroment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120CF3A-BB82-4222-8CC2-330C7E95FC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E980EFC-2E58-4DF6-BDAF-E8B7E41C36AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="install Scout-App " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>download</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>#main p{background-color:#ff0000}#main p a{color:yellow}</t>
+  </si>
+  <si>
+    <t>→Add project, Output</t>
   </si>
 </sst>
 </file>
@@ -1618,6 +1621,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3053C30F-CFD9-55C8-C433-25936A3F068D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="304800" y="1123950"/>
+          <a:ext cx="2343150" cy="6115050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1910,20 +1966,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9114C9-9ECF-4631-99EE-582413DDE689}">
-  <dimension ref="A2:H225"/>
+  <dimension ref="A2:I225"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="P217" sqref="P217"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="M186" sqref="M186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1990,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -1945,7 +2001,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1956,7 +2012,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1966,8 +2022,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1978,7 +2037,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1989,7 +2048,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2000,33 +2059,33 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2313,20 +2372,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E2EFC6-B6CE-403B-9A90-5DF142338D89}">
-  <dimension ref="A2:H350"/>
+  <dimension ref="A2:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H356" sqref="H356"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2396,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2348,7 +2407,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -2359,7 +2418,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2369,8 +2428,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2381,7 +2443,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2392,7 +2454,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2403,31 +2465,31 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
